--- a/docs/ValueSet-us-core-tags.xlsx
+++ b/docs/ValueSet-us-core-tags.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-15T09:15:52-07:00</t>
+    <t>2022-04-19T23:22:25-07:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/ValueSet-us-core-tags.xlsx
+++ b/docs/ValueSet-us-core-tags.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-19T23:22:25-07:00</t>
+    <t>2022-06-13T15:54:52-07:00</t>
   </si>
   <si>
     <t>Publisher</t>
